--- a/Calculs/PH2/Versions.xlsx
+++ b/Calculs/PH2/Versions.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65A0032-CB90-4712-89AD-B98524CA3E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC128EA1-8B81-4ED1-A82C-C1A2A065A408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>V1</t>
   </si>
@@ -58,6 +69,18 @@
   </si>
   <si>
     <t>ETABS</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>+redis ELS</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>EXE</t>
   </si>
 </sst>
 </file>
@@ -99,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -397,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -408,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -419,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -433,7 +457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -442,6 +466,37 @@
       </c>
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
